--- a/DataDriven/BigW.xlsx
+++ b/DataDriven/BigW.xlsx
@@ -27,10 +27,10 @@
     <t>PassWord</t>
   </si>
   <si>
-    <t>Cjlx@4202</t>
+    <t>louisxavierj@gmail.com</t>
   </si>
   <si>
-    <t>louisxavierj@gmail.com</t>
+    <t>Love@1526</t>
   </si>
 </sst>
 </file>
@@ -366,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -394,10 +394,15 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>6919</v>
       </c>
     </row>
   </sheetData>
